--- a/parameter/helper/consumption_12_23-consumption_12_to_23/log-B.xlsx
+++ b/parameter/helper/consumption_12_23-consumption_12_to_23/log-B.xlsx
@@ -1007,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2183,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2227,19 +2227,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3148,25 +3148,25 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3192,25 +3192,25 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3679,13 +3679,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3855,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3899,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3987,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4952,13 +4952,13 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4996,13 +4996,13 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -5040,13 +5040,13 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -5084,13 +5084,13 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -5128,13 +5128,13 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -8091,19 +8091,19 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
         <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0</v>
       </c>
       <c r="M174" t="n">
         <v>0</v>
@@ -8135,19 +8135,19 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
         <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0</v>
       </c>
       <c r="M175" t="n">
         <v>0</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N185" t="n">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -10335,13 +10335,13 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -11511,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L260" t="n">
         <v>0</v>
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L261" t="n">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -12300,28 +12300,28 @@
         <v>268</v>
       </c>
       <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
         <v>1</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0</v>
-      </c>
-      <c r="E270" t="n">
-        <v>0</v>
-      </c>
-      <c r="F270" t="n">
-        <v>0</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>0</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -12344,7 +12344,7 @@
         <v>269</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>270</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>271</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -12476,7 +12476,7 @@
         <v>272</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -12520,7 +12520,7 @@
         <v>273</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -12564,7 +12564,7 @@
         <v>274</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>275</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="N278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="N279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="N280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -13195,25 +13195,25 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
         <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="n">
-        <v>0</v>
-      </c>
-      <c r="K290" t="n">
-        <v>0</v>
-      </c>
-      <c r="L290" t="n">
-        <v>0</v>
-      </c>
-      <c r="M290" t="n">
-        <v>0</v>
-      </c>
-      <c r="N290" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -13239,25 +13239,25 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
         <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="n">
-        <v>0</v>
-      </c>
-      <c r="K291" t="n">
-        <v>0</v>
-      </c>
-      <c r="L291" t="n">
-        <v>0</v>
-      </c>
-      <c r="M291" t="n">
-        <v>0</v>
-      </c>
-      <c r="N291" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -13283,25 +13283,25 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
         <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="n">
-        <v>0</v>
-      </c>
-      <c r="K292" t="n">
-        <v>0</v>
-      </c>
-      <c r="L292" t="n">
-        <v>0</v>
-      </c>
-      <c r="M292" t="n">
-        <v>0</v>
-      </c>
-      <c r="N292" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -13591,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -13723,10 +13723,10 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
         <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
       </c>
       <c r="J302" t="n">
         <v>0</v>
@@ -13770,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="n">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -14151,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E312" t="n">
         <v>0</v>
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315" t="n">
         <v>0</v>
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -14371,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318" t="n">
         <v>0</v>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -15011,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M331" t="n">
         <v>0</v>
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M332" t="n">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -15659,7 +15659,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -15703,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -15923,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -16099,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -16407,13 +16407,13 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
       <c r="J363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K363" t="n">
         <v>0</v>
@@ -16451,13 +16451,13 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
       <c r="J364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K364" t="n">
         <v>0</v>
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -16539,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" t="n">
         <v>0</v>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="F373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="F374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G374" t="n">
         <v>0</v>
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="F376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
@@ -17017,22 +17017,22 @@
         <v>0</v>
       </c>
       <c r="F377" t="n">
+        <v>0</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0</v>
+      </c>
+      <c r="K377" t="n">
         <v>1</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="n">
-        <v>0</v>
-      </c>
-      <c r="J377" t="n">
-        <v>0</v>
-      </c>
-      <c r="K377" t="n">
-        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>0</v>
@@ -17061,22 +17061,22 @@
         <v>0</v>
       </c>
       <c r="F378" t="n">
+        <v>0</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K378" t="n">
         <v>1</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="n">
-        <v>0</v>
-      </c>
-      <c r="J378" t="n">
-        <v>0</v>
-      </c>
-      <c r="K378" t="n">
-        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="F379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" t="n">
         <v>0</v>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K386" t="n">
         <v>0</v>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K387" t="n">
         <v>0</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -17771,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>393</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
@@ -17815,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -17844,7 +17844,7 @@
         <v>394</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D396" t="n">
         <v>0</v>
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -17888,7 +17888,7 @@
         <v>395</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D397" t="n">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -17932,7 +17932,7 @@
         <v>396</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D398" t="n">
         <v>0</v>
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -17976,7 +17976,7 @@
         <v>397</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D399" t="n">
         <v>0</v>
@@ -17991,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -18020,7 +18020,7 @@
         <v>398</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -18064,7 +18064,7 @@
         <v>399</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D401" t="n">
         <v>0</v>
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -18108,7 +18108,7 @@
         <v>400</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D402" t="n">
         <v>0</v>
@@ -18123,7 +18123,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -18152,7 +18152,7 @@
         <v>401</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D403" t="n">
         <v>0</v>
@@ -18167,7 +18167,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -18196,7 +18196,7 @@
         <v>402</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
@@ -18211,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -18240,7 +18240,7 @@
         <v>403</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D405" t="n">
         <v>0</v>
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -18284,7 +18284,7 @@
         <v>404</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406" t="n">
         <v>0</v>
@@ -18299,7 +18299,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -18328,7 +18328,7 @@
         <v>405</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D407" t="n">
         <v>0</v>
@@ -18343,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -18372,7 +18372,7 @@
         <v>406</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D408" t="n">
         <v>0</v>
@@ -18387,7 +18387,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -18431,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="M419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N419" t="n">
         <v>0</v>
@@ -18930,7 +18930,7 @@
         <v>0</v>
       </c>
       <c r="M420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N420" t="n">
         <v>0</v>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="E421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F422" t="n">
         <v>0</v>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F423" t="n">
         <v>0</v>
@@ -19082,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F424" t="n">
         <v>0</v>
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="E425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425" t="n">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F426" t="n">
         <v>0</v>
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="E427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F427" t="n">
         <v>0</v>
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F428" t="n">
         <v>0</v>
@@ -19302,7 +19302,7 @@
         <v>0</v>
       </c>
       <c r="E429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F429" t="n">
         <v>0</v>
@@ -19346,19 +19346,19 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
+        <v>0</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
         <v>1</v>
-      </c>
-      <c r="F430" t="n">
-        <v>0</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="n">
-        <v>0</v>
       </c>
       <c r="J430" t="n">
         <v>0</v>
@@ -19390,19 +19390,19 @@
         <v>0</v>
       </c>
       <c r="E431" t="n">
+        <v>0</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
         <v>1</v>
-      </c>
-      <c r="F431" t="n">
-        <v>0</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="n">
-        <v>0</v>
       </c>
       <c r="J431" t="n">
         <v>0</v>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F432" t="n">
         <v>0</v>
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="F439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G439" t="n">
         <v>0</v>
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="F440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G440" t="n">
         <v>0</v>
@@ -19833,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="F441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G441" t="n">
         <v>0</v>
@@ -19877,7 +19877,7 @@
         <v>0</v>
       </c>
       <c r="F442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G442" t="n">
         <v>0</v>
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="F443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G443" t="n">
         <v>0</v>
@@ -19930,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J443" t="n">
         <v>0</v>
@@ -19965,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="F444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G444" t="n">
         <v>0</v>
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" t="n">
         <v>0</v>
@@ -20009,7 +20009,7 @@
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G445" t="n">
         <v>0</v>
@@ -20053,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="F446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G446" t="n">
         <v>0</v>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="F447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G447" t="n">
         <v>0</v>
@@ -20141,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G448" t="n">
         <v>0</v>
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
       <c r="F449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G449" t="n">
         <v>0</v>
@@ -20229,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="F450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G450" t="n">
         <v>0</v>
@@ -20273,7 +20273,7 @@
         <v>0</v>
       </c>
       <c r="F451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G451" t="n">
         <v>0</v>
@@ -20317,7 +20317,7 @@
         <v>0</v>
       </c>
       <c r="F452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G452" t="n">
         <v>0</v>
@@ -20326,7 +20326,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J452" t="n">
         <v>0</v>
@@ -20370,7 +20370,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J453" t="n">
         <v>0</v>
@@ -20707,7 +20707,7 @@
         <v>0</v>
       </c>
       <c r="D461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E461" t="n">
         <v>0</v>
@@ -20751,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="D462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462" t="n">
         <v>0</v>
@@ -20795,10 +20795,10 @@
         <v>0</v>
       </c>
       <c r="D463" t="n">
+        <v>0</v>
+      </c>
+      <c r="E463" t="n">
         <v>1</v>
-      </c>
-      <c r="E463" t="n">
-        <v>0</v>
       </c>
       <c r="F463" t="n">
         <v>0</v>
@@ -20839,10 +20839,10 @@
         <v>0</v>
       </c>
       <c r="D464" t="n">
+        <v>0</v>
+      </c>
+      <c r="E464" t="n">
         <v>1</v>
-      </c>
-      <c r="E464" t="n">
-        <v>0</v>
       </c>
       <c r="F464" t="n">
         <v>0</v>
@@ -20883,10 +20883,10 @@
         <v>0</v>
       </c>
       <c r="D465" t="n">
+        <v>0</v>
+      </c>
+      <c r="E465" t="n">
         <v>1</v>
-      </c>
-      <c r="E465" t="n">
-        <v>0</v>
       </c>
       <c r="F465" t="n">
         <v>0</v>
@@ -20927,10 +20927,10 @@
         <v>0</v>
       </c>
       <c r="D466" t="n">
+        <v>0</v>
+      </c>
+      <c r="E466" t="n">
         <v>1</v>
-      </c>
-      <c r="E466" t="n">
-        <v>0</v>
       </c>
       <c r="F466" t="n">
         <v>0</v>
@@ -20971,10 +20971,10 @@
         <v>0</v>
       </c>
       <c r="D467" t="n">
+        <v>0</v>
+      </c>
+      <c r="E467" t="n">
         <v>1</v>
-      </c>
-      <c r="E467" t="n">
-        <v>0</v>
       </c>
       <c r="F467" t="n">
         <v>0</v>
@@ -21015,10 +21015,10 @@
         <v>0</v>
       </c>
       <c r="D468" t="n">
+        <v>0</v>
+      </c>
+      <c r="E468" t="n">
         <v>1</v>
-      </c>
-      <c r="E468" t="n">
-        <v>0</v>
       </c>
       <c r="F468" t="n">
         <v>0</v>
@@ -21059,10 +21059,10 @@
         <v>0</v>
       </c>
       <c r="D469" t="n">
+        <v>0</v>
+      </c>
+      <c r="E469" t="n">
         <v>1</v>
-      </c>
-      <c r="E469" t="n">
-        <v>0</v>
       </c>
       <c r="F469" t="n">
         <v>0</v>
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F470" t="n">
         <v>0</v>
@@ -21150,7 +21150,7 @@
         <v>0</v>
       </c>
       <c r="E471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F471" t="n">
         <v>0</v>
@@ -21194,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F472" t="n">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473" t="n">
         <v>0</v>
@@ -21282,7 +21282,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F474" t="n">
         <v>0</v>
@@ -21326,7 +21326,7 @@
         <v>0</v>
       </c>
       <c r="E475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F475" t="n">
         <v>0</v>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F476" t="n">
         <v>0</v>
@@ -21540,7 +21540,7 @@
         <v>478</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D480" t="n">
         <v>0</v>
@@ -21584,7 +21584,7 @@
         <v>479</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D481" t="n">
         <v>0</v>
@@ -21628,7 +21628,7 @@
         <v>480</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D482" t="n">
         <v>0</v>
@@ -21672,7 +21672,7 @@
         <v>481</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>
@@ -21716,7 +21716,7 @@
         <v>482</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D484" t="n">
         <v>0</v>
@@ -21760,7 +21760,7 @@
         <v>483</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D485" t="n">
         <v>0</v>
@@ -21804,7 +21804,7 @@
         <v>484</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D486" t="n">
         <v>0</v>
@@ -21848,31 +21848,31 @@
         <v>485</v>
       </c>
       <c r="C487" t="n">
+        <v>0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0</v>
+      </c>
+      <c r="K487" t="n">
         <v>1</v>
-      </c>
-      <c r="D487" t="n">
-        <v>0</v>
-      </c>
-      <c r="E487" t="n">
-        <v>0</v>
-      </c>
-      <c r="F487" t="n">
-        <v>0</v>
-      </c>
-      <c r="G487" t="n">
-        <v>0</v>
-      </c>
-      <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="n">
-        <v>0</v>
-      </c>
-      <c r="J487" t="n">
-        <v>0</v>
-      </c>
-      <c r="K487" t="n">
-        <v>0</v>
       </c>
       <c r="L487" t="n">
         <v>0</v>
@@ -21892,31 +21892,31 @@
         <v>486</v>
       </c>
       <c r="C488" t="n">
+        <v>0</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0</v>
+      </c>
+      <c r="K488" t="n">
         <v>1</v>
-      </c>
-      <c r="D488" t="n">
-        <v>0</v>
-      </c>
-      <c r="E488" t="n">
-        <v>0</v>
-      </c>
-      <c r="F488" t="n">
-        <v>0</v>
-      </c>
-      <c r="G488" t="n">
-        <v>0</v>
-      </c>
-      <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="n">
-        <v>0</v>
-      </c>
-      <c r="J488" t="n">
-        <v>0</v>
-      </c>
-      <c r="K488" t="n">
-        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>0</v>
@@ -21936,7 +21936,7 @@
         <v>487</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D489" t="n">
         <v>0</v>
@@ -22265,7 +22265,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K496" t="n">
         <v>0</v>
@@ -22309,7 +22309,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K497" t="n">
         <v>0</v>
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="J500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K500" t="n">
         <v>0</v>
@@ -22485,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="J501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K501" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -23051,7 +23051,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -23092,10 +23092,10 @@
         <v>0</v>
       </c>
       <c r="G515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -23136,10 +23136,10 @@
         <v>0</v>
       </c>
       <c r="G516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -23180,10 +23180,10 @@
         <v>0</v>
       </c>
       <c r="G517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -23224,10 +23224,10 @@
         <v>0</v>
       </c>
       <c r="G518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -23268,10 +23268,10 @@
         <v>0</v>
       </c>
       <c r="G519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="G520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -23356,10 +23356,10 @@
         <v>0</v>
       </c>
       <c r="G521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -23400,10 +23400,10 @@
         <v>0</v>
       </c>
       <c r="G522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -23444,10 +23444,10 @@
         <v>0</v>
       </c>
       <c r="G523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -23488,10 +23488,10 @@
         <v>0</v>
       </c>
       <c r="G524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -23532,10 +23532,10 @@
         <v>0</v>
       </c>
       <c r="G525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="G526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H526" t="n">
         <v>0</v>
@@ -23620,7 +23620,7 @@
         <v>0</v>
       </c>
       <c r="G527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H527" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="G528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H528" t="n">
         <v>0</v>
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="G529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H529" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="G530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H530" t="n">
         <v>0</v>
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="G531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H531" t="n">
         <v>0</v>
@@ -23840,7 +23840,7 @@
         <v>0</v>
       </c>
       <c r="G532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H532" t="n">
         <v>0</v>
@@ -23884,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="G533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H533" t="n">
         <v>0</v>
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="G534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H534" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="G535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H535" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="G536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H536" t="n">
         <v>0</v>
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="G537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H537" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="G538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H538" t="n">
         <v>0</v>
@@ -24594,7 +24594,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J549" t="n">
         <v>0</v>
@@ -24638,7 +24638,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J550" t="n">
         <v>0</v>
@@ -24899,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -24987,19 +24987,19 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L558" t="n">
         <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>0</v>
-      </c>
-      <c r="J558" t="n">
-        <v>0</v>
-      </c>
-      <c r="K558" t="n">
-        <v>0</v>
-      </c>
-      <c r="L558" t="n">
-        <v>0</v>
       </c>
       <c r="M558" t="n">
         <v>0</v>
@@ -25031,19 +25031,19 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L559" t="n">
         <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>0</v>
-      </c>
-      <c r="J559" t="n">
-        <v>0</v>
-      </c>
-      <c r="K559" t="n">
-        <v>0</v>
-      </c>
-      <c r="L559" t="n">
-        <v>0</v>
       </c>
       <c r="M559" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E569" t="n">
         <v>0</v>
@@ -25503,7 +25503,7 @@
         <v>0</v>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E570" t="n">
         <v>0</v>
@@ -25547,7 +25547,7 @@
         <v>0</v>
       </c>
       <c r="D571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E571" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E572" t="n">
         <v>0</v>
@@ -25635,7 +25635,7 @@
         <v>0</v>
       </c>
       <c r="D573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="D574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
@@ -25723,7 +25723,7 @@
         <v>0</v>
       </c>
       <c r="D575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E576" t="n">
         <v>0</v>
@@ -25811,7 +25811,7 @@
         <v>0</v>
       </c>
       <c r="D577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E577" t="n">
         <v>0</v>
@@ -25855,7 +25855,7 @@
         <v>0</v>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E578" t="n">
         <v>0</v>
@@ -25899,7 +25899,7 @@
         <v>0</v>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E579" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="K590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L590" t="n">
         <v>0</v>
@@ -26448,7 +26448,7 @@
         <v>0</v>
       </c>
       <c r="K591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L591" t="n">
         <v>0</v>
@@ -26806,7 +26806,7 @@
         <v>0</v>
       </c>
       <c r="M599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N599" t="n">
         <v>0</v>
@@ -26850,7 +26850,7 @@
         <v>0</v>
       </c>
       <c r="M600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N600" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -26967,7 +26967,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -27099,7 +27099,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         <v>0</v>
       </c>
       <c r="D618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E618" t="n">
         <v>0</v>
@@ -27659,7 +27659,7 @@
         <v>0</v>
       </c>
       <c r="D619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E619" t="n">
         <v>0</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="D620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E620" t="n">
         <v>0</v>
@@ -27747,7 +27747,7 @@
         <v>0</v>
       </c>
       <c r="D621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E621" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="D622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E622" t="n">
         <v>0</v>
@@ -27835,7 +27835,7 @@
         <v>0</v>
       </c>
       <c r="D623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E623" t="n">
         <v>0</v>
@@ -28771,7 +28771,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -28859,7 +28859,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -28903,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -28947,7 +28947,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -29035,10 +29035,10 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="n">
         <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>0</v>
       </c>
       <c r="J650" t="n">
         <v>0</v>
@@ -29079,10 +29079,10 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="n">
         <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>0</v>
       </c>
       <c r="J651" t="n">
         <v>0</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -29167,7 +29167,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
       <c r="G659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H659" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="G660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H660" t="n">
         <v>0</v>
@@ -29516,7 +29516,7 @@
         <v>0</v>
       </c>
       <c r="G661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H661" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="G662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H662" t="n">
         <v>0</v>
@@ -29604,7 +29604,7 @@
         <v>0</v>
       </c>
       <c r="G663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H663" t="n">
         <v>0</v>
@@ -29648,13 +29648,13 @@
         <v>0</v>
       </c>
       <c r="G664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H664" t="n">
         <v>0</v>
       </c>
       <c r="I664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J664" t="n">
         <v>0</v>
@@ -29692,13 +29692,13 @@
         <v>0</v>
       </c>
       <c r="G665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H665" t="n">
         <v>0</v>
       </c>
       <c r="I665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J665" t="n">
         <v>0</v>
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="G666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H666" t="n">
         <v>0</v>
@@ -29780,7 +29780,7 @@
         <v>0</v>
       </c>
       <c r="G667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H667" t="n">
         <v>0</v>
@@ -29824,7 +29824,7 @@
         <v>0</v>
       </c>
       <c r="G668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H668" t="n">
         <v>0</v>
@@ -29868,7 +29868,7 @@
         <v>0</v>
       </c>
       <c r="G669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H669" t="n">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>0</v>
       </c>
       <c r="G670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H670" t="n">
         <v>0</v>
@@ -29956,7 +29956,7 @@
         <v>0</v>
       </c>
       <c r="G671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H671" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H672" t="n">
         <v>0</v>
@@ -30044,13 +30044,13 @@
         <v>0</v>
       </c>
       <c r="G673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H673" t="n">
         <v>0</v>
       </c>
       <c r="I673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J673" t="n">
         <v>0</v>
@@ -30088,13 +30088,13 @@
         <v>0</v>
       </c>
       <c r="G674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H674" t="n">
         <v>0</v>
       </c>
       <c r="I674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J674" t="n">
         <v>0</v>
@@ -30132,7 +30132,7 @@
         <v>0</v>
       </c>
       <c r="G675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H675" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="G676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H676" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         <v>0</v>
       </c>
       <c r="G677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H677" t="n">
         <v>0</v>
@@ -30264,7 +30264,7 @@
         <v>0</v>
       </c>
       <c r="G678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H678" t="n">
         <v>0</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="G679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H679" t="n">
         <v>0</v>
@@ -30352,7 +30352,7 @@
         <v>0</v>
       </c>
       <c r="G680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H680" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="G681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H681" t="n">
         <v>0</v>
@@ -30428,7 +30428,7 @@
         <v>680</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D682" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>681</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D683" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>682</v>
       </c>
       <c r="C684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D684" t="n">
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>683</v>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D685" t="n">
         <v>0</v>
@@ -30604,7 +30604,7 @@
         <v>684</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>685</v>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D687" t="n">
         <v>0</v>
@@ -30692,7 +30692,7 @@
         <v>686</v>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D688" t="n">
         <v>0</v>
@@ -30868,7 +30868,7 @@
         <v>690</v>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D692" t="n">
         <v>0</v>
@@ -30912,7 +30912,7 @@
         <v>691</v>
       </c>
       <c r="C693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D693" t="n">
         <v>0</v>
@@ -30956,7 +30956,7 @@
         <v>692</v>
       </c>
       <c r="C694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D694" t="n">
         <v>0</v>
@@ -31000,7 +31000,7 @@
         <v>693</v>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D695" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>694</v>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D696" t="n">
         <v>0</v>
@@ -31088,7 +31088,7 @@
         <v>695</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D697" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>696</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D698" t="n">
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>697</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D699" t="n">
         <v>0</v>
@@ -31220,7 +31220,7 @@
         <v>698</v>
       </c>
       <c r="C700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D700" t="n">
         <v>0</v>
@@ -31264,7 +31264,7 @@
         <v>699</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D701" t="n">
         <v>0</v>
@@ -31308,7 +31308,7 @@
         <v>700</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D702" t="n">
         <v>0</v>
@@ -31631,7 +31631,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -31675,7 +31675,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -31719,7 +31719,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
@@ -31763,7 +31763,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -31807,16 +31807,16 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0</v>
+      </c>
+      <c r="J713" t="n">
+        <v>0</v>
+      </c>
+      <c r="K713" t="n">
         <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>0</v>
-      </c>
-      <c r="J713" t="n">
-        <v>0</v>
-      </c>
-      <c r="K713" t="n">
-        <v>0</v>
       </c>
       <c r="L713" t="n">
         <v>0</v>
@@ -31860,7 +31860,7 @@
         <v>0</v>
       </c>
       <c r="K714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L714" t="n">
         <v>0</v>
@@ -32215,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="L722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M722" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>0</v>
       </c>
       <c r="L723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M723" t="n">
         <v>0</v>
@@ -32291,7 +32291,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
@@ -32379,7 +32379,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
@@ -32423,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
@@ -32511,7 +32511,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -33027,7 +33027,7 @@
         <v>0</v>
       </c>
       <c r="D741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E741" t="n">
         <v>0</v>
@@ -33071,7 +33071,7 @@
         <v>0</v>
       </c>
       <c r="D742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E742" t="n">
         <v>0</v>
@@ -33115,37 +33115,37 @@
         <v>0</v>
       </c>
       <c r="D743" t="n">
+        <v>0</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0</v>
+      </c>
+      <c r="F743" t="n">
+        <v>0</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0</v>
+      </c>
+      <c r="J743" t="n">
+        <v>0</v>
+      </c>
+      <c r="K743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N743" t="n">
         <v>1</v>
-      </c>
-      <c r="E743" t="n">
-        <v>0</v>
-      </c>
-      <c r="F743" t="n">
-        <v>0</v>
-      </c>
-      <c r="G743" t="n">
-        <v>0</v>
-      </c>
-      <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="n">
-        <v>0</v>
-      </c>
-      <c r="J743" t="n">
-        <v>0</v>
-      </c>
-      <c r="K743" t="n">
-        <v>0</v>
-      </c>
-      <c r="L743" t="n">
-        <v>0</v>
-      </c>
-      <c r="M743" t="n">
-        <v>0</v>
-      </c>
-      <c r="N743" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -33159,37 +33159,37 @@
         <v>0</v>
       </c>
       <c r="D744" t="n">
+        <v>0</v>
+      </c>
+      <c r="E744" t="n">
+        <v>0</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0</v>
+      </c>
+      <c r="J744" t="n">
+        <v>0</v>
+      </c>
+      <c r="K744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N744" t="n">
         <v>1</v>
-      </c>
-      <c r="E744" t="n">
-        <v>0</v>
-      </c>
-      <c r="F744" t="n">
-        <v>0</v>
-      </c>
-      <c r="G744" t="n">
-        <v>0</v>
-      </c>
-      <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="n">
-        <v>0</v>
-      </c>
-      <c r="J744" t="n">
-        <v>0</v>
-      </c>
-      <c r="K744" t="n">
-        <v>0</v>
-      </c>
-      <c r="L744" t="n">
-        <v>0</v>
-      </c>
-      <c r="M744" t="n">
-        <v>0</v>
-      </c>
-      <c r="N744" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -33203,7 +33203,7 @@
         <v>0</v>
       </c>
       <c r="D745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E745" t="n">
         <v>0</v>
@@ -34488,7 +34488,7 @@
         <v>0</v>
       </c>
       <c r="G774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H774" t="n">
         <v>0</v>
@@ -34532,7 +34532,7 @@
         <v>0</v>
       </c>
       <c r="G775" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H775" t="n">
         <v>0</v>
@@ -34576,7 +34576,7 @@
         <v>0</v>
       </c>
       <c r="G776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H776" t="n">
         <v>0</v>
@@ -34620,7 +34620,7 @@
         <v>0</v>
       </c>
       <c r="G777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H777" t="n">
         <v>0</v>
@@ -34664,7 +34664,7 @@
         <v>0</v>
       </c>
       <c r="G778" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H778" t="n">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>0</v>
       </c>
       <c r="G779" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H779" t="n">
         <v>0</v>
@@ -34752,7 +34752,7 @@
         <v>0</v>
       </c>
       <c r="G780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H780" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="G781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H781" t="n">
         <v>0</v>
@@ -34840,7 +34840,7 @@
         <v>0</v>
       </c>
       <c r="G782" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H782" t="n">
         <v>0</v>
@@ -34884,7 +34884,7 @@
         <v>0</v>
       </c>
       <c r="G783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H783" t="n">
         <v>0</v>
@@ -34928,7 +34928,7 @@
         <v>0</v>
       </c>
       <c r="G784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H784" t="n">
         <v>0</v>
@@ -34972,7 +34972,7 @@
         <v>0</v>
       </c>
       <c r="G785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H785" t="n">
         <v>0</v>
@@ -35016,10 +35016,10 @@
         <v>0</v>
       </c>
       <c r="G786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
@@ -35060,10 +35060,10 @@
         <v>0</v>
       </c>
       <c r="G787" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>0</v>
@@ -35104,10 +35104,10 @@
         <v>0</v>
       </c>
       <c r="G788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="n">
         <v>0</v>
@@ -35148,10 +35148,10 @@
         <v>0</v>
       </c>
       <c r="G789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789" t="n">
         <v>0</v>
@@ -35192,10 +35192,10 @@
         <v>0</v>
       </c>
       <c r="G790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
@@ -35236,10 +35236,10 @@
         <v>0</v>
       </c>
       <c r="G791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
@@ -35283,7 +35283,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
@@ -35327,7 +35327,7 @@
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I793" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J802" t="n">
         <v>0</v>
@@ -35770,7 +35770,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J803" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="n">
         <v>0</v>
@@ -35855,7 +35855,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I805" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>0</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="n">
         <v>0</v>
@@ -35943,7 +35943,7 @@
         <v>0</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="n">
         <v>0</v>
@@ -35987,7 +35987,7 @@
         <v>0</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="n">
         <v>0</v>
@@ -36031,7 +36031,7 @@
         <v>0</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
@@ -36075,7 +36075,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
@@ -36128,7 +36128,7 @@
         <v>0</v>
       </c>
       <c r="K811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L811" t="n">
         <v>0</v>
@@ -36172,7 +36172,7 @@
         <v>0</v>
       </c>
       <c r="K812" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L812" t="n">
         <v>0</v>
@@ -36503,7 +36503,7 @@
         <v>0</v>
       </c>
       <c r="D820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E820" t="n">
         <v>0</v>
@@ -36544,10 +36544,10 @@
         <v>819</v>
       </c>
       <c r="C821" t="n">
+        <v>0</v>
+      </c>
+      <c r="D821" t="n">
         <v>1</v>
-      </c>
-      <c r="D821" t="n">
-        <v>0</v>
       </c>
       <c r="E821" t="n">
         <v>0</v>
@@ -36588,10 +36588,10 @@
         <v>820</v>
       </c>
       <c r="C822" t="n">
+        <v>0</v>
+      </c>
+      <c r="D822" t="n">
         <v>1</v>
-      </c>
-      <c r="D822" t="n">
-        <v>0</v>
       </c>
       <c r="E822" t="n">
         <v>0</v>
@@ -36632,10 +36632,10 @@
         <v>821</v>
       </c>
       <c r="C823" t="n">
+        <v>0</v>
+      </c>
+      <c r="D823" t="n">
         <v>1</v>
-      </c>
-      <c r="D823" t="n">
-        <v>0</v>
       </c>
       <c r="E823" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>822</v>
       </c>
       <c r="C824" t="n">
+        <v>0</v>
+      </c>
+      <c r="D824" t="n">
         <v>1</v>
-      </c>
-      <c r="D824" t="n">
-        <v>0</v>
       </c>
       <c r="E824" t="n">
         <v>0</v>
@@ -36720,10 +36720,10 @@
         <v>823</v>
       </c>
       <c r="C825" t="n">
+        <v>0</v>
+      </c>
+      <c r="D825" t="n">
         <v>1</v>
-      </c>
-      <c r="D825" t="n">
-        <v>0</v>
       </c>
       <c r="E825" t="n">
         <v>0</v>
@@ -36764,10 +36764,10 @@
         <v>824</v>
       </c>
       <c r="C826" t="n">
+        <v>0</v>
+      </c>
+      <c r="D826" t="n">
         <v>1</v>
-      </c>
-      <c r="D826" t="n">
-        <v>0</v>
       </c>
       <c r="E826" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>825</v>
       </c>
       <c r="C827" t="n">
+        <v>0</v>
+      </c>
+      <c r="D827" t="n">
         <v>1</v>
-      </c>
-      <c r="D827" t="n">
-        <v>0</v>
       </c>
       <c r="E827" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="D828" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E828" t="n">
         <v>0</v>
@@ -36899,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="D829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E829" t="n">
         <v>0</v>
@@ -38615,7 +38615,7 @@
         <v>0</v>
       </c>
       <c r="D868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E868" t="n">
         <v>0</v>
@@ -38659,7 +38659,7 @@
         <v>0</v>
       </c>
       <c r="D869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E869" t="n">
         <v>0</v>
@@ -38703,7 +38703,7 @@
         <v>0</v>
       </c>
       <c r="D870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E870" t="n">
         <v>0</v>
@@ -38747,7 +38747,7 @@
         <v>0</v>
       </c>
       <c r="D871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E871" t="n">
         <v>0</v>
@@ -38791,7 +38791,7 @@
         <v>0</v>
       </c>
       <c r="D872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E872" t="n">
         <v>0</v>
@@ -38835,7 +38835,7 @@
         <v>0</v>
       </c>
       <c r="D873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E873" t="n">
         <v>0</v>
@@ -39331,7 +39331,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I884" t="n">
         <v>0</v>
@@ -39375,7 +39375,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I885" t="n">
         <v>0</v>
@@ -39419,7 +39419,7 @@
         <v>0</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I886" t="n">
         <v>0</v>
@@ -39463,7 +39463,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I887" t="n">
         <v>0</v>
@@ -39507,7 +39507,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I888" t="n">
         <v>0</v>
@@ -39551,7 +39551,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I889" t="n">
         <v>0</v>
@@ -39595,10 +39595,10 @@
         <v>0</v>
       </c>
       <c r="H890" t="n">
+        <v>0</v>
+      </c>
+      <c r="I890" t="n">
         <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>0</v>
       </c>
       <c r="J890" t="n">
         <v>0</v>
@@ -39639,10 +39639,10 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
+        <v>0</v>
+      </c>
+      <c r="I891" t="n">
         <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>0</v>
       </c>
       <c r="J891" t="n">
         <v>0</v>
@@ -39683,7 +39683,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I892" t="n">
         <v>0</v>
@@ -39727,7 +39727,7 @@
         <v>0</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I893" t="n">
         <v>0</v>
@@ -39771,7 +39771,7 @@
         <v>0</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I894" t="n">
         <v>0</v>
@@ -39988,7 +39988,7 @@
         <v>0</v>
       </c>
       <c r="G899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H899" t="n">
         <v>0</v>
@@ -40032,7 +40032,7 @@
         <v>0</v>
       </c>
       <c r="G900" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H900" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="G901" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H901" t="n">
         <v>0</v>
@@ -40120,7 +40120,7 @@
         <v>0</v>
       </c>
       <c r="G902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H902" t="n">
         <v>0</v>
@@ -40164,7 +40164,7 @@
         <v>0</v>
       </c>
       <c r="G903" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H903" t="n">
         <v>0</v>
@@ -40208,7 +40208,7 @@
         <v>0</v>
       </c>
       <c r="G904" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H904" t="n">
         <v>0</v>
@@ -40252,13 +40252,13 @@
         <v>0</v>
       </c>
       <c r="G905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H905" t="n">
         <v>0</v>
       </c>
       <c r="I905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J905" t="n">
         <v>0</v>
@@ -40296,13 +40296,13 @@
         <v>0</v>
       </c>
       <c r="G906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H906" t="n">
         <v>0</v>
       </c>
       <c r="I906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J906" t="n">
         <v>0</v>
@@ -40340,7 +40340,7 @@
         <v>0</v>
       </c>
       <c r="G907" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H907" t="n">
         <v>0</v>
@@ -40384,7 +40384,7 @@
         <v>0</v>
       </c>
       <c r="G908" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H908" t="n">
         <v>0</v>
@@ -40428,7 +40428,7 @@
         <v>0</v>
       </c>
       <c r="G909" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H909" t="n">
         <v>0</v>
@@ -40472,7 +40472,7 @@
         <v>0</v>
       </c>
       <c r="G910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H910" t="n">
         <v>0</v>
@@ -40516,7 +40516,7 @@
         <v>0</v>
       </c>
       <c r="G911" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H911" t="n">
         <v>0</v>
@@ -40560,7 +40560,7 @@
         <v>0</v>
       </c>
       <c r="G912" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H912" t="n">
         <v>0</v>
@@ -40604,7 +40604,7 @@
         <v>0</v>
       </c>
       <c r="G913" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H913" t="n">
         <v>0</v>
@@ -40648,13 +40648,13 @@
         <v>0</v>
       </c>
       <c r="G914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H914" t="n">
         <v>0</v>
       </c>
       <c r="I914" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J914" t="n">
         <v>0</v>
@@ -40692,13 +40692,13 @@
         <v>0</v>
       </c>
       <c r="G915" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H915" t="n">
         <v>0</v>
       </c>
       <c r="I915" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J915" t="n">
         <v>0</v>
@@ -40736,7 +40736,7 @@
         <v>0</v>
       </c>
       <c r="G916" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H916" t="n">
         <v>0</v>
@@ -40780,7 +40780,7 @@
         <v>0</v>
       </c>
       <c r="G917" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H917" t="n">
         <v>0</v>
@@ -41276,7 +41276,7 @@
         <v>0</v>
       </c>
       <c r="K928" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L928" t="n">
         <v>0</v>
@@ -41320,7 +41320,7 @@
         <v>0</v>
       </c>
       <c r="K929" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L929" t="n">
         <v>0</v>
@@ -41487,7 +41487,7 @@
         <v>0</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I933" t="n">
         <v>0</v>
@@ -41531,7 +41531,7 @@
         <v>0</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I934" t="n">
         <v>0</v>
@@ -41575,7 +41575,7 @@
         <v>0</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I935" t="n">
         <v>0</v>
@@ -41619,7 +41619,7 @@
         <v>0</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I936" t="n">
         <v>0</v>
@@ -41663,19 +41663,19 @@
         <v>0</v>
       </c>
       <c r="H937" t="n">
+        <v>0</v>
+      </c>
+      <c r="I937" t="n">
+        <v>0</v>
+      </c>
+      <c r="J937" t="n">
+        <v>0</v>
+      </c>
+      <c r="K937" t="n">
+        <v>0</v>
+      </c>
+      <c r="L937" t="n">
         <v>1</v>
-      </c>
-      <c r="I937" t="n">
-        <v>0</v>
-      </c>
-      <c r="J937" t="n">
-        <v>0</v>
-      </c>
-      <c r="K937" t="n">
-        <v>0</v>
-      </c>
-      <c r="L937" t="n">
-        <v>0</v>
       </c>
       <c r="M937" t="n">
         <v>0</v>
@@ -41707,19 +41707,19 @@
         <v>0</v>
       </c>
       <c r="H938" t="n">
+        <v>0</v>
+      </c>
+      <c r="I938" t="n">
+        <v>0</v>
+      </c>
+      <c r="J938" t="n">
+        <v>0</v>
+      </c>
+      <c r="K938" t="n">
+        <v>0</v>
+      </c>
+      <c r="L938" t="n">
         <v>1</v>
-      </c>
-      <c r="I938" t="n">
-        <v>0</v>
-      </c>
-      <c r="J938" t="n">
-        <v>0</v>
-      </c>
-      <c r="K938" t="n">
-        <v>0</v>
-      </c>
-      <c r="L938" t="n">
-        <v>0</v>
       </c>
       <c r="M938" t="n">
         <v>0</v>
@@ -41751,7 +41751,7 @@
         <v>0</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I939" t="n">
         <v>0</v>
@@ -41795,7 +41795,7 @@
         <v>0</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I940" t="n">
         <v>0</v>
@@ -41839,7 +41839,7 @@
         <v>0</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I941" t="n">
         <v>0</v>
@@ -42165,7 +42165,7 @@
         <v>0</v>
       </c>
       <c r="N948" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949">
@@ -42209,7 +42209,7 @@
         <v>0</v>
       </c>
       <c r="N949" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950">
@@ -42332,7 +42332,7 @@
         <v>0</v>
       </c>
       <c r="K952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L952" t="n">
         <v>0</v>
@@ -42376,7 +42376,7 @@
         <v>0</v>
       </c>
       <c r="K953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L953" t="n">
         <v>0</v>
@@ -42420,7 +42420,7 @@
         <v>0</v>
       </c>
       <c r="K954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L954" t="n">
         <v>0</v>
@@ -42464,7 +42464,7 @@
         <v>0</v>
       </c>
       <c r="K955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L955" t="n">
         <v>0</v>
@@ -42616,7 +42616,7 @@
         <v>957</v>
       </c>
       <c r="C959" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D959" t="n">
         <v>0</v>
@@ -42660,7 +42660,7 @@
         <v>958</v>
       </c>
       <c r="C960" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D960" t="n">
         <v>0</v>
@@ -42704,7 +42704,7 @@
         <v>959</v>
       </c>
       <c r="C961" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D961" t="n">
         <v>0</v>
@@ -42748,7 +42748,7 @@
         <v>960</v>
       </c>
       <c r="C962" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D962" t="n">
         <v>0</v>
@@ -42792,7 +42792,7 @@
         <v>961</v>
       </c>
       <c r="C963" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D963" t="n">
         <v>0</v>
@@ -42836,7 +42836,7 @@
         <v>962</v>
       </c>
       <c r="C964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D964" t="n">
         <v>0</v>
@@ -42880,7 +42880,7 @@
         <v>963</v>
       </c>
       <c r="C965" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D965" t="n">
         <v>0</v>
@@ -42924,7 +42924,7 @@
         <v>964</v>
       </c>
       <c r="C966" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D966" t="n">
         <v>0</v>
@@ -42968,7 +42968,7 @@
         <v>965</v>
       </c>
       <c r="C967" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D967" t="n">
         <v>0</v>
@@ -43012,7 +43012,7 @@
         <v>966</v>
       </c>
       <c r="C968" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D968" t="n">
         <v>0</v>
@@ -43056,7 +43056,7 @@
         <v>967</v>
       </c>
       <c r="C969" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D969" t="n">
         <v>0</v>
@@ -43100,7 +43100,7 @@
         <v>968</v>
       </c>
       <c r="C970" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D970" t="n">
         <v>0</v>
@@ -43596,7 +43596,7 @@
         <v>0</v>
       </c>
       <c r="G981" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H981" t="n">
         <v>0</v>
@@ -43640,7 +43640,7 @@
         <v>0</v>
       </c>
       <c r="G982" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H982" t="n">
         <v>0</v>
@@ -43684,7 +43684,7 @@
         <v>0</v>
       </c>
       <c r="G983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H983" t="n">
         <v>0</v>
@@ -43728,7 +43728,7 @@
         <v>0</v>
       </c>
       <c r="G984" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H984" t="n">
         <v>0</v>
@@ -43772,7 +43772,7 @@
         <v>0</v>
       </c>
       <c r="G985" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H985" t="n">
         <v>0</v>
@@ -43816,7 +43816,7 @@
         <v>0</v>
       </c>
       <c r="G986" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H986" t="n">
         <v>0</v>
@@ -43860,7 +43860,7 @@
         <v>0</v>
       </c>
       <c r="G987" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H987" t="n">
         <v>0</v>
@@ -43904,7 +43904,7 @@
         <v>0</v>
       </c>
       <c r="G988" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H988" t="n">
         <v>0</v>
@@ -43948,7 +43948,7 @@
         <v>0</v>
       </c>
       <c r="G989" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H989" t="n">
         <v>0</v>
@@ -43992,7 +43992,7 @@
         <v>0</v>
       </c>
       <c r="G990" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H990" t="n">
         <v>0</v>
@@ -44036,7 +44036,7 @@
         <v>0</v>
       </c>
       <c r="G991" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H991" t="n">
         <v>0</v>
@@ -44080,7 +44080,7 @@
         <v>0</v>
       </c>
       <c r="G992" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H992" t="n">
         <v>0</v>
@@ -44124,7 +44124,7 @@
         <v>0</v>
       </c>
       <c r="G993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H993" t="n">
         <v>0</v>
@@ -44599,7 +44599,7 @@
         <v>0</v>
       </c>
       <c r="D1004" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1004" t="n">
         <v>0</v>
@@ -44643,7 +44643,7 @@
         <v>0</v>
       </c>
       <c r="D1005" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1005" t="n">
         <v>0</v>
@@ -44687,7 +44687,7 @@
         <v>0</v>
       </c>
       <c r="D1006" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1006" t="n">
         <v>0</v>
@@ -44731,7 +44731,7 @@
         <v>0</v>
       </c>
       <c r="D1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1007" t="n">
         <v>0</v>
@@ -44775,7 +44775,7 @@
         <v>0</v>
       </c>
       <c r="D1008" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1008" t="n">
         <v>0</v>
@@ -44819,7 +44819,7 @@
         <v>0</v>
       </c>
       <c r="D1009" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1009" t="n">
         <v>0</v>
@@ -44863,7 +44863,7 @@
         <v>0</v>
       </c>
       <c r="D1010" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1010" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1021" t="n">
         <v>0</v>
@@ -45406,7 +45406,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1022" t="n">
         <v>0</v>

--- a/parameter/helper/consumption_12_23-consumption_12_to_23/log-B.xlsx
+++ b/parameter/helper/consumption_12_23-consumption_12_to_23/log-B.xlsx
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
         <v>1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
         <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
         <v>1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3679,13 +3679,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
         <v>1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
         <v>1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
         <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
         <v>1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3855,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
         <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3899,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
         <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3987,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
         <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4565,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4609,16 +4609,16 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4952,13 +4952,13 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
         <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4996,13 +4996,13 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
         <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -5040,13 +5040,13 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
         <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -5084,13 +5084,13 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
         <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -5128,13 +5128,13 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
         <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M174" t="n">
         <v>0</v>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M175" t="n">
         <v>0</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -10335,13 +10335,13 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
         <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -11511,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>0</v>
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>268</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -12344,7 +12344,7 @@
         <v>269</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>270</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>271</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -12476,7 +12476,7 @@
         <v>272</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -12520,7 +12520,7 @@
         <v>273</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -12564,7 +12564,7 @@
         <v>274</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>275</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="N278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="N279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="N280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="N290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="N291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="N292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -13591,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -13723,10 +13723,10 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="n">
         <v>0</v>
@@ -13770,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="n">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -14151,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312" t="n">
         <v>0</v>
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315" t="n">
         <v>0</v>
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -14371,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E318" t="n">
         <v>0</v>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -15011,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M331" t="n">
         <v>0</v>
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M332" t="n">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -15659,7 +15659,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -15703,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -15923,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -16099,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -16407,13 +16407,13 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
         <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
-      <c r="J363" t="n">
-        <v>0</v>
       </c>
       <c r="K363" t="n">
         <v>0</v>
@@ -16451,13 +16451,13 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" t="n">
         <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
-      <c r="J364" t="n">
-        <v>0</v>
       </c>
       <c r="K364" t="n">
         <v>0</v>
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -16539,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G372" t="n">
         <v>0</v>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="F373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="F374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G374" t="n">
         <v>0</v>
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="F375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="F376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
@@ -17017,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377" t="n">
         <v>0</v>
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="K377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>0</v>
@@ -17061,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="F378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G378" t="n">
         <v>0</v>
@@ -17076,7 +17076,7 @@
         <v>0</v>
       </c>
       <c r="K378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="F379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G379" t="n">
         <v>0</v>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K386" t="n">
         <v>0</v>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K387" t="n">
         <v>0</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -17771,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -17800,22 +17800,22 @@
         <v>393</v>
       </c>
       <c r="C395" t="n">
+        <v>0</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0</v>
+      </c>
+      <c r="H395" t="n">
         <v>1</v>
-      </c>
-      <c r="D395" t="n">
-        <v>0</v>
-      </c>
-      <c r="E395" t="n">
-        <v>0</v>
-      </c>
-      <c r="F395" t="n">
-        <v>0</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -17844,22 +17844,22 @@
         <v>394</v>
       </c>
       <c r="C396" t="n">
+        <v>0</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0</v>
+      </c>
+      <c r="H396" t="n">
         <v>1</v>
-      </c>
-      <c r="D396" t="n">
-        <v>0</v>
-      </c>
-      <c r="E396" t="n">
-        <v>0</v>
-      </c>
-      <c r="F396" t="n">
-        <v>0</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -17888,22 +17888,22 @@
         <v>395</v>
       </c>
       <c r="C397" t="n">
+        <v>0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0</v>
+      </c>
+      <c r="H397" t="n">
         <v>1</v>
-      </c>
-      <c r="D397" t="n">
-        <v>0</v>
-      </c>
-      <c r="E397" t="n">
-        <v>0</v>
-      </c>
-      <c r="F397" t="n">
-        <v>0</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -17932,22 +17932,22 @@
         <v>396</v>
       </c>
       <c r="C398" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0</v>
+      </c>
+      <c r="H398" t="n">
         <v>1</v>
-      </c>
-      <c r="D398" t="n">
-        <v>0</v>
-      </c>
-      <c r="E398" t="n">
-        <v>0</v>
-      </c>
-      <c r="F398" t="n">
-        <v>0</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -17976,22 +17976,22 @@
         <v>397</v>
       </c>
       <c r="C399" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
+      <c r="H399" t="n">
         <v>1</v>
-      </c>
-      <c r="D399" t="n">
-        <v>0</v>
-      </c>
-      <c r="E399" t="n">
-        <v>0</v>
-      </c>
-      <c r="F399" t="n">
-        <v>0</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -18020,22 +18020,22 @@
         <v>398</v>
       </c>
       <c r="C400" t="n">
+        <v>0</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
+      <c r="H400" t="n">
         <v>1</v>
-      </c>
-      <c r="D400" t="n">
-        <v>0</v>
-      </c>
-      <c r="E400" t="n">
-        <v>0</v>
-      </c>
-      <c r="F400" t="n">
-        <v>0</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -18064,22 +18064,22 @@
         <v>399</v>
       </c>
       <c r="C401" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0</v>
+      </c>
+      <c r="H401" t="n">
         <v>1</v>
-      </c>
-      <c r="D401" t="n">
-        <v>0</v>
-      </c>
-      <c r="E401" t="n">
-        <v>0</v>
-      </c>
-      <c r="F401" t="n">
-        <v>0</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -18108,22 +18108,22 @@
         <v>400</v>
       </c>
       <c r="C402" t="n">
+        <v>0</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0</v>
+      </c>
+      <c r="H402" t="n">
         <v>1</v>
-      </c>
-      <c r="D402" t="n">
-        <v>0</v>
-      </c>
-      <c r="E402" t="n">
-        <v>0</v>
-      </c>
-      <c r="F402" t="n">
-        <v>0</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -18152,22 +18152,22 @@
         <v>401</v>
       </c>
       <c r="C403" t="n">
+        <v>0</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0</v>
+      </c>
+      <c r="H403" t="n">
         <v>1</v>
-      </c>
-      <c r="D403" t="n">
-        <v>0</v>
-      </c>
-      <c r="E403" t="n">
-        <v>0</v>
-      </c>
-      <c r="F403" t="n">
-        <v>0</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -18196,22 +18196,22 @@
         <v>402</v>
       </c>
       <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0</v>
+      </c>
+      <c r="H404" t="n">
         <v>1</v>
-      </c>
-      <c r="D404" t="n">
-        <v>0</v>
-      </c>
-      <c r="E404" t="n">
-        <v>0</v>
-      </c>
-      <c r="F404" t="n">
-        <v>0</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -18240,22 +18240,22 @@
         <v>403</v>
       </c>
       <c r="C405" t="n">
+        <v>0</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0</v>
+      </c>
+      <c r="H405" t="n">
         <v>1</v>
-      </c>
-      <c r="D405" t="n">
-        <v>0</v>
-      </c>
-      <c r="E405" t="n">
-        <v>0</v>
-      </c>
-      <c r="F405" t="n">
-        <v>0</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -18284,22 +18284,22 @@
         <v>404</v>
       </c>
       <c r="C406" t="n">
+        <v>0</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0</v>
+      </c>
+      <c r="H406" t="n">
         <v>1</v>
-      </c>
-      <c r="D406" t="n">
-        <v>0</v>
-      </c>
-      <c r="E406" t="n">
-        <v>0</v>
-      </c>
-      <c r="F406" t="n">
-        <v>0</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -18328,22 +18328,22 @@
         <v>405</v>
       </c>
       <c r="C407" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0</v>
+      </c>
+      <c r="H407" t="n">
         <v>1</v>
-      </c>
-      <c r="D407" t="n">
-        <v>0</v>
-      </c>
-      <c r="E407" t="n">
-        <v>0</v>
-      </c>
-      <c r="F407" t="n">
-        <v>0</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -18372,22 +18372,22 @@
         <v>406</v>
       </c>
       <c r="C408" t="n">
+        <v>0</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0</v>
+      </c>
+      <c r="H408" t="n">
         <v>1</v>
-      </c>
-      <c r="D408" t="n">
-        <v>0</v>
-      </c>
-      <c r="E408" t="n">
-        <v>0</v>
-      </c>
-      <c r="F408" t="n">
-        <v>0</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -18431,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="M419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N419" t="n">
         <v>0</v>
@@ -18930,7 +18930,7 @@
         <v>0</v>
       </c>
       <c r="M420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N420" t="n">
         <v>0</v>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F422" t="n">
         <v>0</v>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F423" t="n">
         <v>0</v>
@@ -19082,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F424" t="n">
         <v>0</v>
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="E425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F425" t="n">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F426" t="n">
         <v>0</v>
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="E427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F427" t="n">
         <v>0</v>
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F428" t="n">
         <v>0</v>
@@ -19302,7 +19302,7 @@
         <v>0</v>
       </c>
       <c r="E429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F429" t="n">
         <v>0</v>
@@ -19346,7 +19346,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F430" t="n">
         <v>0</v>
@@ -19358,7 +19358,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J430" t="n">
         <v>0</v>
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="E431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F431" t="n">
         <v>0</v>
@@ -19402,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J431" t="n">
         <v>0</v>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F432" t="n">
         <v>0</v>
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="F439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G439" t="n">
         <v>0</v>
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="F440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G440" t="n">
         <v>0</v>
@@ -19833,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="F441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G441" t="n">
         <v>0</v>
@@ -19877,7 +19877,7 @@
         <v>0</v>
       </c>
       <c r="F442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G442" t="n">
         <v>0</v>
@@ -19921,16 +19921,16 @@
         <v>0</v>
       </c>
       <c r="F443" t="n">
+        <v>0</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
         <v>1</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="n">
-        <v>0</v>
       </c>
       <c r="J443" t="n">
         <v>0</v>
@@ -19965,16 +19965,16 @@
         <v>0</v>
       </c>
       <c r="F444" t="n">
+        <v>0</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="n">
         <v>1</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="n">
-        <v>0</v>
       </c>
       <c r="J444" t="n">
         <v>0</v>
@@ -20009,7 +20009,7 @@
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G445" t="n">
         <v>0</v>
@@ -20053,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="F446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G446" t="n">
         <v>0</v>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="F447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G447" t="n">
         <v>0</v>
@@ -20141,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G448" t="n">
         <v>0</v>
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
       <c r="F449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G449" t="n">
         <v>0</v>
@@ -20229,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="F450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G450" t="n">
         <v>0</v>
@@ -20273,7 +20273,7 @@
         <v>0</v>
       </c>
       <c r="F451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G451" t="n">
         <v>0</v>
@@ -20317,16 +20317,16 @@
         <v>0</v>
       </c>
       <c r="F452" t="n">
+        <v>0</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="n">
         <v>1</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="n">
-        <v>0</v>
       </c>
       <c r="J452" t="n">
         <v>0</v>
@@ -20370,7 +20370,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453" t="n">
         <v>0</v>
@@ -20707,7 +20707,7 @@
         <v>0</v>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E461" t="n">
         <v>0</v>
@@ -20751,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="D462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E462" t="n">
         <v>0</v>
@@ -20795,10 +20795,10 @@
         <v>0</v>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F463" t="n">
         <v>0</v>
@@ -20839,10 +20839,10 @@
         <v>0</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F464" t="n">
         <v>0</v>
@@ -20883,10 +20883,10 @@
         <v>0</v>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F465" t="n">
         <v>0</v>
@@ -20927,10 +20927,10 @@
         <v>0</v>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F466" t="n">
         <v>0</v>
@@ -20971,10 +20971,10 @@
         <v>0</v>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F467" t="n">
         <v>0</v>
@@ -21015,10 +21015,10 @@
         <v>0</v>
       </c>
       <c r="D468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F468" t="n">
         <v>0</v>
@@ -21059,10 +21059,10 @@
         <v>0</v>
       </c>
       <c r="D469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F469" t="n">
         <v>0</v>
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F470" t="n">
         <v>0</v>
@@ -21150,7 +21150,7 @@
         <v>0</v>
       </c>
       <c r="E471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F471" t="n">
         <v>0</v>
@@ -21194,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F472" t="n">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F473" t="n">
         <v>0</v>
@@ -21282,7 +21282,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F474" t="n">
         <v>0</v>
@@ -21326,7 +21326,7 @@
         <v>0</v>
       </c>
       <c r="E475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F475" t="n">
         <v>0</v>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F476" t="n">
         <v>0</v>
@@ -21540,7 +21540,7 @@
         <v>478</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D480" t="n">
         <v>0</v>
@@ -21584,7 +21584,7 @@
         <v>479</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D481" t="n">
         <v>0</v>
@@ -21628,7 +21628,7 @@
         <v>480</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D482" t="n">
         <v>0</v>
@@ -21672,7 +21672,7 @@
         <v>481</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>
@@ -21716,7 +21716,7 @@
         <v>482</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D484" t="n">
         <v>0</v>
@@ -21760,7 +21760,7 @@
         <v>483</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D485" t="n">
         <v>0</v>
@@ -21804,7 +21804,7 @@
         <v>484</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D486" t="n">
         <v>0</v>
@@ -21848,7 +21848,7 @@
         <v>485</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D487" t="n">
         <v>0</v>
@@ -21872,7 +21872,7 @@
         <v>0</v>
       </c>
       <c r="K487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L487" t="n">
         <v>0</v>
@@ -21892,7 +21892,7 @@
         <v>486</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D488" t="n">
         <v>0</v>
@@ -21916,7 +21916,7 @@
         <v>0</v>
       </c>
       <c r="K488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>0</v>
@@ -21936,7 +21936,7 @@
         <v>487</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D489" t="n">
         <v>0</v>
@@ -22265,7 +22265,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K496" t="n">
         <v>0</v>
@@ -22309,7 +22309,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K497" t="n">
         <v>0</v>
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="J500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K500" t="n">
         <v>0</v>
@@ -22485,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="J501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K501" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -23051,7 +23051,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -23092,10 +23092,10 @@
         <v>0</v>
       </c>
       <c r="G515" t="n">
+        <v>0</v>
+      </c>
+      <c r="H515" t="n">
         <v>1</v>
-      </c>
-      <c r="H515" t="n">
-        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -23136,10 +23136,10 @@
         <v>0</v>
       </c>
       <c r="G516" t="n">
+        <v>0</v>
+      </c>
+      <c r="H516" t="n">
         <v>1</v>
-      </c>
-      <c r="H516" t="n">
-        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -23180,10 +23180,10 @@
         <v>0</v>
       </c>
       <c r="G517" t="n">
+        <v>0</v>
+      </c>
+      <c r="H517" t="n">
         <v>1</v>
-      </c>
-      <c r="H517" t="n">
-        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -23224,10 +23224,10 @@
         <v>0</v>
       </c>
       <c r="G518" t="n">
+        <v>0</v>
+      </c>
+      <c r="H518" t="n">
         <v>1</v>
-      </c>
-      <c r="H518" t="n">
-        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -23268,10 +23268,10 @@
         <v>0</v>
       </c>
       <c r="G519" t="n">
+        <v>0</v>
+      </c>
+      <c r="H519" t="n">
         <v>1</v>
-      </c>
-      <c r="H519" t="n">
-        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="G520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" t="n">
         <v>1</v>
-      </c>
-      <c r="H520" t="n">
-        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -23356,10 +23356,10 @@
         <v>0</v>
       </c>
       <c r="G521" t="n">
+        <v>0</v>
+      </c>
+      <c r="H521" t="n">
         <v>1</v>
-      </c>
-      <c r="H521" t="n">
-        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -23400,10 +23400,10 @@
         <v>0</v>
       </c>
       <c r="G522" t="n">
+        <v>0</v>
+      </c>
+      <c r="H522" t="n">
         <v>1</v>
-      </c>
-      <c r="H522" t="n">
-        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -23444,10 +23444,10 @@
         <v>0</v>
       </c>
       <c r="G523" t="n">
+        <v>0</v>
+      </c>
+      <c r="H523" t="n">
         <v>1</v>
-      </c>
-      <c r="H523" t="n">
-        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -23488,10 +23488,10 @@
         <v>0</v>
       </c>
       <c r="G524" t="n">
+        <v>0</v>
+      </c>
+      <c r="H524" t="n">
         <v>1</v>
-      </c>
-      <c r="H524" t="n">
-        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -23532,10 +23532,10 @@
         <v>0</v>
       </c>
       <c r="G525" t="n">
+        <v>0</v>
+      </c>
+      <c r="H525" t="n">
         <v>1</v>
-      </c>
-      <c r="H525" t="n">
-        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H526" t="n">
         <v>0</v>
@@ -23620,7 +23620,7 @@
         <v>0</v>
       </c>
       <c r="G527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H527" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="G528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H528" t="n">
         <v>0</v>
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="G529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H529" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="G530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H530" t="n">
         <v>0</v>
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="G531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H531" t="n">
         <v>0</v>
@@ -23840,7 +23840,7 @@
         <v>0</v>
       </c>
       <c r="G532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H532" t="n">
         <v>0</v>
@@ -23884,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="G533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H533" t="n">
         <v>0</v>
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="G534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H534" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="G535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H535" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="G536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H536" t="n">
         <v>0</v>
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="G537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H537" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="G538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H538" t="n">
         <v>0</v>
@@ -24594,7 +24594,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J549" t="n">
         <v>0</v>
@@ -24638,7 +24638,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J550" t="n">
         <v>0</v>
@@ -24899,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -24999,7 +24999,7 @@
         <v>0</v>
       </c>
       <c r="L558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M558" t="n">
         <v>0</v>
@@ -25031,7 +25031,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="L559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M559" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="D569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E569" t="n">
         <v>0</v>
@@ -25503,7 +25503,7 @@
         <v>0</v>
       </c>
       <c r="D570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E570" t="n">
         <v>0</v>
@@ -25547,7 +25547,7 @@
         <v>0</v>
       </c>
       <c r="D571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E571" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="D572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E572" t="n">
         <v>0</v>
@@ -25635,7 +25635,7 @@
         <v>0</v>
       </c>
       <c r="D573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="D574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
@@ -25723,7 +25723,7 @@
         <v>0</v>
       </c>
       <c r="D575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="D576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E576" t="n">
         <v>0</v>
@@ -25811,7 +25811,7 @@
         <v>0</v>
       </c>
       <c r="D577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E577" t="n">
         <v>0</v>
@@ -25855,7 +25855,7 @@
         <v>0</v>
       </c>
       <c r="D578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E578" t="n">
         <v>0</v>
@@ -25899,7 +25899,7 @@
         <v>0</v>
       </c>
       <c r="D579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E579" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="K590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>0</v>
@@ -26448,7 +26448,7 @@
         <v>0</v>
       </c>
       <c r="K591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L591" t="n">
         <v>0</v>
@@ -26806,7 +26806,7 @@
         <v>0</v>
       </c>
       <c r="M599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N599" t="n">
         <v>0</v>
@@ -26850,7 +26850,7 @@
         <v>0</v>
       </c>
       <c r="M600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N600" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -26967,7 +26967,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -27099,7 +27099,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         <v>0</v>
       </c>
       <c r="D618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E618" t="n">
         <v>0</v>
@@ -27659,7 +27659,7 @@
         <v>0</v>
       </c>
       <c r="D619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E619" t="n">
         <v>0</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="D620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E620" t="n">
         <v>0</v>
@@ -27747,7 +27747,7 @@
         <v>0</v>
       </c>
       <c r="D621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E621" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="D622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E622" t="n">
         <v>0</v>
@@ -27835,7 +27835,7 @@
         <v>0</v>
       </c>
       <c r="D623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E623" t="n">
         <v>0</v>
@@ -28771,7 +28771,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -28859,7 +28859,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -28903,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -28947,7 +28947,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -29035,10 +29035,10 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J650" t="n">
         <v>0</v>
@@ -29079,10 +29079,10 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J651" t="n">
         <v>0</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -29167,7 +29167,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
       <c r="G659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H659" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="G660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H660" t="n">
         <v>0</v>
@@ -29516,7 +29516,7 @@
         <v>0</v>
       </c>
       <c r="G661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H661" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="G662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H662" t="n">
         <v>0</v>
@@ -29604,7 +29604,7 @@
         <v>0</v>
       </c>
       <c r="G663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H663" t="n">
         <v>0</v>
@@ -29648,13 +29648,13 @@
         <v>0</v>
       </c>
       <c r="G664" t="n">
+        <v>0</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="n">
         <v>1</v>
-      </c>
-      <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="n">
-        <v>0</v>
       </c>
       <c r="J664" t="n">
         <v>0</v>
@@ -29692,13 +29692,13 @@
         <v>0</v>
       </c>
       <c r="G665" t="n">
+        <v>0</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="n">
         <v>1</v>
-      </c>
-      <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="n">
-        <v>0</v>
       </c>
       <c r="J665" t="n">
         <v>0</v>
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="G666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H666" t="n">
         <v>0</v>
@@ -29780,7 +29780,7 @@
         <v>0</v>
       </c>
       <c r="G667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H667" t="n">
         <v>0</v>
@@ -29824,7 +29824,7 @@
         <v>0</v>
       </c>
       <c r="G668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H668" t="n">
         <v>0</v>
@@ -29868,7 +29868,7 @@
         <v>0</v>
       </c>
       <c r="G669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H669" t="n">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>0</v>
       </c>
       <c r="G670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H670" t="n">
         <v>0</v>
@@ -29956,7 +29956,7 @@
         <v>0</v>
       </c>
       <c r="G671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H671" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H672" t="n">
         <v>0</v>
@@ -30044,13 +30044,13 @@
         <v>0</v>
       </c>
       <c r="G673" t="n">
+        <v>0</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="n">
         <v>1</v>
-      </c>
-      <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="n">
-        <v>0</v>
       </c>
       <c r="J673" t="n">
         <v>0</v>
@@ -30088,13 +30088,13 @@
         <v>0</v>
       </c>
       <c r="G674" t="n">
+        <v>0</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="n">
         <v>1</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="n">
-        <v>0</v>
       </c>
       <c r="J674" t="n">
         <v>0</v>
@@ -30132,7 +30132,7 @@
         <v>0</v>
       </c>
       <c r="G675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H675" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="G676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H676" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         <v>0</v>
       </c>
       <c r="G677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H677" t="n">
         <v>0</v>
@@ -30264,7 +30264,7 @@
         <v>0</v>
       </c>
       <c r="G678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H678" t="n">
         <v>0</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="G679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H679" t="n">
         <v>0</v>
@@ -30352,7 +30352,7 @@
         <v>0</v>
       </c>
       <c r="G680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H680" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="G681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H681" t="n">
         <v>0</v>
@@ -30428,7 +30428,7 @@
         <v>680</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D682" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>681</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D683" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>682</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D684" t="n">
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>683</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D685" t="n">
         <v>0</v>
@@ -30604,7 +30604,7 @@
         <v>684</v>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>685</v>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D687" t="n">
         <v>0</v>
@@ -30692,7 +30692,7 @@
         <v>686</v>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D688" t="n">
         <v>0</v>
@@ -30868,7 +30868,7 @@
         <v>690</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D692" t="n">
         <v>0</v>
@@ -30912,7 +30912,7 @@
         <v>691</v>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D693" t="n">
         <v>0</v>
@@ -30956,7 +30956,7 @@
         <v>692</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D694" t="n">
         <v>0</v>
@@ -31000,7 +31000,7 @@
         <v>693</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D695" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>694</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D696" t="n">
         <v>0</v>
@@ -31088,7 +31088,7 @@
         <v>695</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D697" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>696</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D698" t="n">
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>697</v>
       </c>
       <c r="C699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D699" t="n">
         <v>0</v>
@@ -31220,7 +31220,7 @@
         <v>698</v>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D700" t="n">
         <v>0</v>
@@ -31264,7 +31264,7 @@
         <v>699</v>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D701" t="n">
         <v>0</v>
@@ -31308,7 +31308,7 @@
         <v>700</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D702" t="n">
         <v>0</v>
@@ -31631,7 +31631,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -31675,7 +31675,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -31719,7 +31719,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
@@ -31763,7 +31763,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -31807,7 +31807,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -31816,7 +31816,7 @@
         <v>0</v>
       </c>
       <c r="K713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L713" t="n">
         <v>0</v>
@@ -31860,7 +31860,7 @@
         <v>0</v>
       </c>
       <c r="K714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L714" t="n">
         <v>0</v>
@@ -32215,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="L722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M722" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>0</v>
       </c>
       <c r="L723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M723" t="n">
         <v>0</v>
@@ -32291,7 +32291,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
@@ -32379,7 +32379,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
@@ -32423,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
@@ -32511,7 +32511,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -33027,7 +33027,7 @@
         <v>0</v>
       </c>
       <c r="D741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E741" t="n">
         <v>0</v>
@@ -33071,7 +33071,7 @@
         <v>0</v>
       </c>
       <c r="D742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E742" t="n">
         <v>0</v>
@@ -33115,7 +33115,7 @@
         <v>0</v>
       </c>
       <c r="D743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E743" t="n">
         <v>0</v>
@@ -33145,7 +33145,7 @@
         <v>0</v>
       </c>
       <c r="N743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -33159,7 +33159,7 @@
         <v>0</v>
       </c>
       <c r="D744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E744" t="n">
         <v>0</v>
@@ -33189,7 +33189,7 @@
         <v>0</v>
       </c>
       <c r="N744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -33203,7 +33203,7 @@
         <v>0</v>
       </c>
       <c r="D745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E745" t="n">
         <v>0</v>
@@ -34488,7 +34488,7 @@
         <v>0</v>
       </c>
       <c r="G774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H774" t="n">
         <v>0</v>
@@ -34532,7 +34532,7 @@
         <v>0</v>
       </c>
       <c r="G775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H775" t="n">
         <v>0</v>
@@ -34576,7 +34576,7 @@
         <v>0</v>
       </c>
       <c r="G776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H776" t="n">
         <v>0</v>
@@ -34620,7 +34620,7 @@
         <v>0</v>
       </c>
       <c r="G777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H777" t="n">
         <v>0</v>
@@ -34664,7 +34664,7 @@
         <v>0</v>
       </c>
       <c r="G778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H778" t="n">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>0</v>
       </c>
       <c r="G779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H779" t="n">
         <v>0</v>
@@ -34752,7 +34752,7 @@
         <v>0</v>
       </c>
       <c r="G780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H780" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="G781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H781" t="n">
         <v>0</v>
@@ -34840,7 +34840,7 @@
         <v>0</v>
       </c>
       <c r="G782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H782" t="n">
         <v>0</v>
@@ -34884,7 +34884,7 @@
         <v>0</v>
       </c>
       <c r="G783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H783" t="n">
         <v>0</v>
@@ -34928,7 +34928,7 @@
         <v>0</v>
       </c>
       <c r="G784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H784" t="n">
         <v>0</v>
@@ -34972,7 +34972,7 @@
         <v>0</v>
       </c>
       <c r="G785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H785" t="n">
         <v>0</v>
@@ -35016,10 +35016,10 @@
         <v>0</v>
       </c>
       <c r="G786" t="n">
+        <v>0</v>
+      </c>
+      <c r="H786" t="n">
         <v>1</v>
-      </c>
-      <c r="H786" t="n">
-        <v>0</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
@@ -35060,10 +35060,10 @@
         <v>0</v>
       </c>
       <c r="G787" t="n">
+        <v>0</v>
+      </c>
+      <c r="H787" t="n">
         <v>1</v>
-      </c>
-      <c r="H787" t="n">
-        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>0</v>
@@ -35104,10 +35104,10 @@
         <v>0</v>
       </c>
       <c r="G788" t="n">
+        <v>0</v>
+      </c>
+      <c r="H788" t="n">
         <v>1</v>
-      </c>
-      <c r="H788" t="n">
-        <v>0</v>
       </c>
       <c r="I788" t="n">
         <v>0</v>
@@ -35148,10 +35148,10 @@
         <v>0</v>
       </c>
       <c r="G789" t="n">
+        <v>0</v>
+      </c>
+      <c r="H789" t="n">
         <v>1</v>
-      </c>
-      <c r="H789" t="n">
-        <v>0</v>
       </c>
       <c r="I789" t="n">
         <v>0</v>
@@ -35192,10 +35192,10 @@
         <v>0</v>
       </c>
       <c r="G790" t="n">
+        <v>0</v>
+      </c>
+      <c r="H790" t="n">
         <v>1</v>
-      </c>
-      <c r="H790" t="n">
-        <v>0</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
@@ -35236,10 +35236,10 @@
         <v>0</v>
       </c>
       <c r="G791" t="n">
+        <v>0</v>
+      </c>
+      <c r="H791" t="n">
         <v>1</v>
-      </c>
-      <c r="H791" t="n">
-        <v>0</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
@@ -35283,7 +35283,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
@@ -35327,7 +35327,7 @@
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I793" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J802" t="n">
         <v>0</v>
@@ -35770,7 +35770,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J803" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>0</v>
@@ -35855,7 +35855,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I805" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>0</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I806" t="n">
         <v>0</v>
@@ -35943,7 +35943,7 @@
         <v>0</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I807" t="n">
         <v>0</v>
@@ -35987,7 +35987,7 @@
         <v>0</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I808" t="n">
         <v>0</v>
@@ -36031,7 +36031,7 @@
         <v>0</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
@@ -36075,7 +36075,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
@@ -36128,7 +36128,7 @@
         <v>0</v>
       </c>
       <c r="K811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L811" t="n">
         <v>0</v>
@@ -36172,7 +36172,7 @@
         <v>0</v>
       </c>
       <c r="K812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L812" t="n">
         <v>0</v>
@@ -36503,7 +36503,7 @@
         <v>0</v>
       </c>
       <c r="D820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E820" t="n">
         <v>0</v>
@@ -36544,10 +36544,10 @@
         <v>819</v>
       </c>
       <c r="C821" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E821" t="n">
         <v>0</v>
@@ -36588,10 +36588,10 @@
         <v>820</v>
       </c>
       <c r="C822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E822" t="n">
         <v>0</v>
@@ -36632,10 +36632,10 @@
         <v>821</v>
       </c>
       <c r="C823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E823" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>822</v>
       </c>
       <c r="C824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E824" t="n">
         <v>0</v>
@@ -36720,10 +36720,10 @@
         <v>823</v>
       </c>
       <c r="C825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E825" t="n">
         <v>0</v>
@@ -36764,10 +36764,10 @@
         <v>824</v>
       </c>
       <c r="C826" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E826" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>825</v>
       </c>
       <c r="C827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E827" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="D828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E828" t="n">
         <v>0</v>
@@ -36899,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="D829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E829" t="n">
         <v>0</v>
@@ -38615,7 +38615,7 @@
         <v>0</v>
       </c>
       <c r="D868" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E868" t="n">
         <v>0</v>
@@ -38659,7 +38659,7 @@
         <v>0</v>
       </c>
       <c r="D869" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E869" t="n">
         <v>0</v>
@@ -38703,7 +38703,7 @@
         <v>0</v>
       </c>
       <c r="D870" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E870" t="n">
         <v>0</v>
@@ -38747,7 +38747,7 @@
         <v>0</v>
       </c>
       <c r="D871" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E871" t="n">
         <v>0</v>
@@ -38791,7 +38791,7 @@
         <v>0</v>
       </c>
       <c r="D872" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E872" t="n">
         <v>0</v>
@@ -38835,7 +38835,7 @@
         <v>0</v>
       </c>
       <c r="D873" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E873" t="n">
         <v>0</v>
@@ -39331,7 +39331,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I884" t="n">
         <v>0</v>
@@ -39375,7 +39375,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I885" t="n">
         <v>0</v>
@@ -39419,7 +39419,7 @@
         <v>0</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I886" t="n">
         <v>0</v>
@@ -39463,7 +39463,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I887" t="n">
         <v>0</v>
@@ -39507,7 +39507,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I888" t="n">
         <v>0</v>
@@ -39551,7 +39551,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I889" t="n">
         <v>0</v>
@@ -39595,10 +39595,10 @@
         <v>0</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I890" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J890" t="n">
         <v>0</v>
@@ -39639,10 +39639,10 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J891" t="n">
         <v>0</v>
@@ -39683,7 +39683,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I892" t="n">
         <v>0</v>
@@ -39727,7 +39727,7 @@
         <v>0</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I893" t="n">
         <v>0</v>
@@ -39771,7 +39771,7 @@
         <v>0</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I894" t="n">
         <v>0</v>
@@ -39988,7 +39988,7 @@
         <v>0</v>
       </c>
       <c r="G899" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H899" t="n">
         <v>0</v>
@@ -40032,7 +40032,7 @@
         <v>0</v>
       </c>
       <c r="G900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H900" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="G901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H901" t="n">
         <v>0</v>
@@ -40120,7 +40120,7 @@
         <v>0</v>
       </c>
       <c r="G902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H902" t="n">
         <v>0</v>
@@ -40164,7 +40164,7 @@
         <v>0</v>
       </c>
       <c r="G903" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H903" t="n">
         <v>0</v>
@@ -40208,7 +40208,7 @@
         <v>0</v>
       </c>
       <c r="G904" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H904" t="n">
         <v>0</v>
@@ -40252,13 +40252,13 @@
         <v>0</v>
       </c>
       <c r="G905" t="n">
+        <v>0</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0</v>
+      </c>
+      <c r="I905" t="n">
         <v>1</v>
-      </c>
-      <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="n">
-        <v>0</v>
       </c>
       <c r="J905" t="n">
         <v>0</v>
@@ -40296,13 +40296,13 @@
         <v>0</v>
       </c>
       <c r="G906" t="n">
+        <v>0</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0</v>
+      </c>
+      <c r="I906" t="n">
         <v>1</v>
-      </c>
-      <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="n">
-        <v>0</v>
       </c>
       <c r="J906" t="n">
         <v>0</v>
@@ -40340,7 +40340,7 @@
         <v>0</v>
       </c>
       <c r="G907" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H907" t="n">
         <v>0</v>
@@ -40384,7 +40384,7 @@
         <v>0</v>
       </c>
       <c r="G908" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H908" t="n">
         <v>0</v>
@@ -40428,7 +40428,7 @@
         <v>0</v>
       </c>
       <c r="G909" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H909" t="n">
         <v>0</v>
@@ -40472,7 +40472,7 @@
         <v>0</v>
       </c>
       <c r="G910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H910" t="n">
         <v>0</v>
@@ -40516,7 +40516,7 @@
         <v>0</v>
       </c>
       <c r="G911" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H911" t="n">
         <v>0</v>
@@ -40560,7 +40560,7 @@
         <v>0</v>
       </c>
       <c r="G912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H912" t="n">
         <v>0</v>
@@ -40604,7 +40604,7 @@
         <v>0</v>
       </c>
       <c r="G913" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H913" t="n">
         <v>0</v>
@@ -40648,13 +40648,13 @@
         <v>0</v>
       </c>
       <c r="G914" t="n">
+        <v>0</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="n">
         <v>1</v>
-      </c>
-      <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="n">
-        <v>0</v>
       </c>
       <c r="J914" t="n">
         <v>0</v>
@@ -40692,13 +40692,13 @@
         <v>0</v>
       </c>
       <c r="G915" t="n">
+        <v>0</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="n">
         <v>1</v>
-      </c>
-      <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="n">
-        <v>0</v>
       </c>
       <c r="J915" t="n">
         <v>0</v>
@@ -40736,7 +40736,7 @@
         <v>0</v>
       </c>
       <c r="G916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H916" t="n">
         <v>0</v>
@@ -40780,7 +40780,7 @@
         <v>0</v>
       </c>
       <c r="G917" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H917" t="n">
         <v>0</v>
@@ -41276,7 +41276,7 @@
         <v>0</v>
       </c>
       <c r="K928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L928" t="n">
         <v>0</v>
@@ -41320,7 +41320,7 @@
         <v>0</v>
       </c>
       <c r="K929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L929" t="n">
         <v>0</v>
@@ -41487,7 +41487,7 @@
         <v>0</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I933" t="n">
         <v>0</v>
@@ -41531,7 +41531,7 @@
         <v>0</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I934" t="n">
         <v>0</v>
@@ -41575,7 +41575,7 @@
         <v>0</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I935" t="n">
         <v>0</v>
@@ -41619,7 +41619,7 @@
         <v>0</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I936" t="n">
         <v>0</v>
@@ -41663,7 +41663,7 @@
         <v>0</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I937" t="n">
         <v>0</v>
@@ -41675,7 +41675,7 @@
         <v>0</v>
       </c>
       <c r="L937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M937" t="n">
         <v>0</v>
@@ -41707,7 +41707,7 @@
         <v>0</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I938" t="n">
         <v>0</v>
@@ -41719,7 +41719,7 @@
         <v>0</v>
       </c>
       <c r="L938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M938" t="n">
         <v>0</v>
@@ -41751,7 +41751,7 @@
         <v>0</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I939" t="n">
         <v>0</v>
@@ -41795,7 +41795,7 @@
         <v>0</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I940" t="n">
         <v>0</v>
@@ -41839,7 +41839,7 @@
         <v>0</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I941" t="n">
         <v>0</v>
@@ -42165,7 +42165,7 @@
         <v>0</v>
       </c>
       <c r="N948" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -42209,7 +42209,7 @@
         <v>0</v>
       </c>
       <c r="N949" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950">
@@ -42332,7 +42332,7 @@
         <v>0</v>
       </c>
       <c r="K952" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L952" t="n">
         <v>0</v>
@@ -42376,7 +42376,7 @@
         <v>0</v>
       </c>
       <c r="K953" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L953" t="n">
         <v>0</v>
@@ -42420,7 +42420,7 @@
         <v>0</v>
       </c>
       <c r="K954" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L954" t="n">
         <v>0</v>
@@ -42464,7 +42464,7 @@
         <v>0</v>
       </c>
       <c r="K955" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L955" t="n">
         <v>0</v>
@@ -42616,7 +42616,7 @@
         <v>957</v>
       </c>
       <c r="C959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D959" t="n">
         <v>0</v>
@@ -42660,7 +42660,7 @@
         <v>958</v>
       </c>
       <c r="C960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D960" t="n">
         <v>0</v>
@@ -42704,7 +42704,7 @@
         <v>959</v>
       </c>
       <c r="C961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D961" t="n">
         <v>0</v>
@@ -42748,7 +42748,7 @@
         <v>960</v>
       </c>
       <c r="C962" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D962" t="n">
         <v>0</v>
@@ -42792,7 +42792,7 @@
         <v>961</v>
       </c>
       <c r="C963" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D963" t="n">
         <v>0</v>
@@ -42836,7 +42836,7 @@
         <v>962</v>
       </c>
       <c r="C964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D964" t="n">
         <v>0</v>
@@ -42880,7 +42880,7 @@
         <v>963</v>
       </c>
       <c r="C965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D965" t="n">
         <v>0</v>
@@ -42924,7 +42924,7 @@
         <v>964</v>
       </c>
       <c r="C966" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D966" t="n">
         <v>0</v>
@@ -42968,7 +42968,7 @@
         <v>965</v>
       </c>
       <c r="C967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D967" t="n">
         <v>0</v>
@@ -43012,7 +43012,7 @@
         <v>966</v>
       </c>
       <c r="C968" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D968" t="n">
         <v>0</v>
@@ -43056,7 +43056,7 @@
         <v>967</v>
       </c>
       <c r="C969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D969" t="n">
         <v>0</v>
@@ -43100,7 +43100,7 @@
         <v>968</v>
       </c>
       <c r="C970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D970" t="n">
         <v>0</v>
@@ -43596,7 +43596,7 @@
         <v>0</v>
       </c>
       <c r="G981" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H981" t="n">
         <v>0</v>
@@ -43640,7 +43640,7 @@
         <v>0</v>
       </c>
       <c r="G982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H982" t="n">
         <v>0</v>
@@ -43684,7 +43684,7 @@
         <v>0</v>
       </c>
       <c r="G983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H983" t="n">
         <v>0</v>
@@ -43728,7 +43728,7 @@
         <v>0</v>
       </c>
       <c r="G984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H984" t="n">
         <v>0</v>
@@ -43772,7 +43772,7 @@
         <v>0</v>
       </c>
       <c r="G985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H985" t="n">
         <v>0</v>
@@ -43816,7 +43816,7 @@
         <v>0</v>
       </c>
       <c r="G986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H986" t="n">
         <v>0</v>
@@ -43860,7 +43860,7 @@
         <v>0</v>
       </c>
       <c r="G987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H987" t="n">
         <v>0</v>
@@ -43904,7 +43904,7 @@
         <v>0</v>
       </c>
       <c r="G988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H988" t="n">
         <v>0</v>
@@ -43948,7 +43948,7 @@
         <v>0</v>
       </c>
       <c r="G989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H989" t="n">
         <v>0</v>
@@ -43992,7 +43992,7 @@
         <v>0</v>
       </c>
       <c r="G990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H990" t="n">
         <v>0</v>
@@ -44036,7 +44036,7 @@
         <v>0</v>
       </c>
       <c r="G991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H991" t="n">
         <v>0</v>
@@ -44080,7 +44080,7 @@
         <v>0</v>
       </c>
       <c r="G992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H992" t="n">
         <v>0</v>
@@ -44124,7 +44124,7 @@
         <v>0</v>
       </c>
       <c r="G993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H993" t="n">
         <v>0</v>
@@ -44599,7 +44599,7 @@
         <v>0</v>
       </c>
       <c r="D1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1004" t="n">
         <v>0</v>
@@ -44643,7 +44643,7 @@
         <v>0</v>
       </c>
       <c r="D1005" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1005" t="n">
         <v>0</v>
@@ -44687,7 +44687,7 @@
         <v>0</v>
       </c>
       <c r="D1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1006" t="n">
         <v>0</v>
@@ -44731,7 +44731,7 @@
         <v>0</v>
       </c>
       <c r="D1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1007" t="n">
         <v>0</v>
@@ -44775,7 +44775,7 @@
         <v>0</v>
       </c>
       <c r="D1008" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1008" t="n">
         <v>0</v>
@@ -44819,7 +44819,7 @@
         <v>0</v>
       </c>
       <c r="D1009" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1009" t="n">
         <v>0</v>
@@ -44863,7 +44863,7 @@
         <v>0</v>
       </c>
       <c r="D1010" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1010" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1021" t="n">
         <v>0</v>
@@ -45406,7 +45406,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1022" t="n">
         <v>0</v>

--- a/parameter/helper/consumption_12_23-consumption_12_to_23/log-B.xlsx
+++ b/parameter/helper/consumption_12_23-consumption_12_to_23/log-B.xlsx
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -4075,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4644,16 +4644,16 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
         <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -5172,13 +5172,13 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M174" t="n">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M176" t="n">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N187" t="n">
         <v>0</v>
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L262" t="n">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="N278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="N281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="N290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="N293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="n">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="n">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -15011,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M331" t="n">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="L333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M333" t="n">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
